--- a/case_study_db/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/case_study_db/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\CodegymStudyMaterials\module_03\case_study_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD2F12-7FC4-496F-A6FF-EAD558986D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0498468-4CD6-4E53-84FD-01B147ECE395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15945" yWindow="3660" windowWidth="21600" windowHeight="11385" tabRatio="816" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="343">
   <si>
     <t>ma_vi_tri</t>
   </si>
@@ -1098,6 +1098,21 @@
   </si>
   <si>
     <t>1 Xe máy</t>
+  </si>
+  <si>
+    <t>22035000</t>
+  </si>
+  <si>
+    <t>giá tiền thuê 1 ngày * số ngày thuê</t>
+  </si>
+  <si>
+    <t>chưa từng được đặt trước Q1 năm 2021</t>
+  </si>
+  <si>
+    <t>là dịch vụ đó trước thời điểm đó chưa được đặt lần nào</t>
+  </si>
+  <si>
+    <t>hop_dong!A1</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1256,6 +1271,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1601,7 +1621,7 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,10 +1685,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:O13"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,6 +1988,16 @@
       </c>
       <c r="O10" s="13"/>
     </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1978,9 +2008,553 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="17">
+        <v>44026</v>
+      </c>
+      <c r="H15" s="17">
+        <v>44033</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="17">
+        <v>44270</v>
+      </c>
+      <c r="H16" s="17">
+        <v>44272</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>7</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="16">
+        <v>6</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="17">
+        <v>44348</v>
+      </c>
+      <c r="H17" s="17">
+        <v>44350</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>9</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>10</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="16">
+        <v>12</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="17">
+        <v>44341</v>
+      </c>
+      <c r="H19" s="17">
+        <v>44343</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="16">
+        <v>5</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="17">
+        <v>44391</v>
+      </c>
+      <c r="H20" s="17">
+        <v>44392</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="17">
+        <v>44210</v>
+      </c>
+      <c r="H22" s="17">
+        <v>44214</v>
+      </c>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
+        <v>6</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="17">
+        <v>44173</v>
+      </c>
+      <c r="H24" s="17">
+        <v>44173</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>3</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="17">
+        <v>44026</v>
+      </c>
+      <c r="H26" s="17">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
+        <v>3</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="16">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="17">
+        <v>44298</v>
+      </c>
+      <c r="H27" s="17">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
+        <v>4</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="17">
+        <v>44270</v>
+      </c>
+      <c r="H28" s="17">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="16">
+        <v>4</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="16">
+        <v>7</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="17">
+        <v>44441</v>
+      </c>
+      <c r="H29" s="17">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="16">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="16">
+        <v>8</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="17">
+        <v>44364</v>
+      </c>
+      <c r="H30" s="17">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
+        <v>4</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="16">
+        <v>9</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="17">
+        <v>44154</v>
+      </c>
+      <c r="H31" s="17">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="16">
+        <v>7</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="17">
+        <v>44348</v>
+      </c>
+      <c r="H32" s="17">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="16">
+        <v>9</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="16">
+        <v>10</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="16">
+        <v>12</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="17">
+        <v>44341</v>
+      </c>
+      <c r="H34" s="17">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="16">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="16">
+        <v>5</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="17">
+        <v>44391</v>
+      </c>
+      <c r="H35" s="17">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="16">
+        <v>2</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="16">
+        <v>11</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="17">
+        <v>44311</v>
+      </c>
+      <c r="H36" s="17">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="16">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="16">
+        <v>5</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="16">
+        <v>4</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="17">
+        <v>44210</v>
+      </c>
+      <c r="H38" s="17">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
+        <v>6</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="16">
+        <v>1</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="17">
+        <v>44173</v>
+      </c>
+      <c r="H40" s="17">
+        <v>44173</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1997,7 +2571,7 @@
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B2" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,10 +2724,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,72 +2781,69 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="13"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="13"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -2293,200 +2867,197 @@
       <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="13"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="13"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="13"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>306</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J16" s="16"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:H16">
+    <sortCondition ref="C5:C16"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2498,10 +3069,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,13 +3085,13 @@
     <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong_chi_tiet</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>191</v>
       </c>
@@ -2535,7 +3106,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2550,7 +3121,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2565,7 +3136,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2579,8 +3150,16 @@
         <v>7</v>
       </c>
       <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2594,8 +3173,16 @@
         <v>2</v>
       </c>
       <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2609,8 +3196,16 @@
         <v>3</v>
       </c>
       <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2624,8 +3219,16 @@
         <v>4</v>
       </c>
       <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2639,8 +3242,12 @@
         <v>3</v>
       </c>
       <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2654,6 +3261,32 @@
         <v>3</v>
       </c>
       <c r="G12" s="13"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
@@ -2693,10 +3326,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="B2:I197"/>
+  <dimension ref="B2:N197"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H194" sqref="H194"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,12 +3432,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>236</v>
       </c>
@@ -2815,7 +3448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2826,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +3470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2848,12 +3481,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>236</v>
       </c>
@@ -2879,7 +3512,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -2904,8 +3537,14 @@
       <c r="I28" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +3570,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +3596,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +3622,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -3007,6 +3646,9 @@
       </c>
       <c r="I32" s="2" t="s">
         <v>322</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -3240,6 +3882,9 @@
       <c r="F45" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
@@ -3256,6 +3901,9 @@
       </c>
       <c r="F46" s="2" t="s">
         <v>118</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -3274,6 +3922,9 @@
       <c r="F47" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="H47" s="19" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
@@ -4573,6 +5224,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H47" location="hop_dong!A1" display="hop_dong!A1" xr:uid="{4D7A16C7-D050-4CA0-8980-029D4EF90C31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4792,10 +5446,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5244,7 +5901,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,10 +5981,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
